--- a/data/case1/5/Qlm2_5.xlsx
+++ b/data/case1/5/Qlm2_5.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.21193993974097225</v>
+        <v>-0.18419135961709543</v>
       </c>
       <c r="B1" s="0">
-        <v>0.2116078566967019</v>
+        <v>0.1839390068102702</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.18950422402605049</v>
+        <v>-0.16183656714019357</v>
       </c>
       <c r="B2" s="0">
-        <v>0.18819106216160275</v>
+        <v>0.16087237082842165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.090590974490508458</v>
+        <v>-0.11116081581842785</v>
       </c>
       <c r="B3" s="0">
-        <v>0.090446377727712246</v>
+        <v>0.11093457547303487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.082446377794171966</v>
+        <v>-0.10293457557234476</v>
       </c>
       <c r="B4" s="0">
-        <v>0.082167320643176112</v>
+        <v>0.1025452755606171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.079167320680800124</v>
+        <v>-0.099545275618038609</v>
       </c>
       <c r="B5" s="0">
-        <v>0.078236099705330631</v>
+        <v>0.09822653954633509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.029762330439329077</v>
+        <v>-0.028297034817125422</v>
       </c>
       <c r="B6" s="0">
-        <v>0.029466436209270697</v>
+        <v>0.028101069789721933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019466436300361156</v>
+        <v>-0.018101069934517433</v>
       </c>
       <c r="B7" s="0">
-        <v>0.019405371577625008</v>
+        <v>0.018067409238734733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.019012369111441885</v>
+        <v>-0.0080674093857413531</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.019040108952923518</v>
+        <v>0.0080383166576827314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.021040108913812805</v>
+        <v>-0.01239959987560546</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.021082034678257422</v>
+        <v>0.012281093177163083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.023082034641470628</v>
+        <v>0.019380207292908125</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.02308693115406335</v>
+        <v>-0.019380124945303834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.02608693111073368</v>
+        <v>0.022380124862587003</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.02609946921441697</v>
+        <v>-0.02238596341740795</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0039091897831404765</v>
+        <v>-0.020864435766380307</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0038977648403828447</v>
+        <v>0.020669837226262366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.00039776488649234665</v>
+        <v>-0.017169837318991021</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00039660170786603999</v>
+        <v>0.017081571591431199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0076033982170686798</v>
+        <v>-0.0090815717295296139</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.007606212971048798</v>
+        <v>0.0090530500400811675</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.008606212941424829</v>
+        <v>-0.008053050111094251</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0086140221493380409</v>
+        <v>0.008034653410452286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060332912021072715</v>
+        <v>-0.0060346534921489337</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032745909675</v>
+        <v>0.0060032556732165787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032746272000708</v>
+        <v>-0.0040032557562756921</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999506470374</v>
+        <v>0.0039999998972435336</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.01610363271107218</v>
+        <v>-0.016102439730367735</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091447116064472</v>
+        <v>0.016090988721103372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091447143775191</v>
+        <v>-0.012090988762107013</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016516156103663</v>
+        <v>0.012016121524238699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080165161857141953</v>
+        <v>-0.0080161215687404308</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056442559381935</v>
+        <v>0.0080056186013290898</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056442858622532</v>
+        <v>-0.0040056186463299781</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999698281385</v>
+        <v>0.0039999999548285814</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.09360008770843109</v>
+        <v>-0.045711555064194442</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093025122760213463</v>
+        <v>0.045498751171056284</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040503274013249602</v>
+        <v>-0.040498751238473574</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099840753559768</v>
+        <v>0.040098819048469458</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099840901808719</v>
+        <v>-0.020098819268454804</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999849851235</v>
+        <v>0.019999999777065902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097242104320729439</v>
+        <v>-0.067929504795179341</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097118334240956727</v>
+        <v>0.067870650818727896</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094618334285069494</v>
+        <v>-0.065370650891606985</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094458571359238519</v>
+        <v>0.065296537028867618</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091958571406283607</v>
+        <v>-0.062796537104869543</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091010220503002781</v>
+        <v>0.062365733837574044</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089010220558134456</v>
+        <v>-0.060365733922294496</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088360986974133304</v>
+        <v>0.060083601596630842</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081360987070020485</v>
+        <v>-0.053083601739540853</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081172899878757754</v>
+        <v>0.053012235774057004</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021172900320133525</v>
+        <v>0.0069877635636994562</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023213419516296</v>
+        <v>-0.0070069132690759872</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023213522948552</v>
+        <v>-0.049025395156117924</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001056337720641</v>
+        <v>0.048867500940964703</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040010564609502808</v>
+        <v>-0.0040007950932796632</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999151945076</v>
+        <v>0.0039999998799356007</v>
       </c>
     </row>
   </sheetData>
